--- a/input/Camas_uci/last_uci_diario.xlsx
+++ b/input/Camas_uci/last_uci_diario.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="676"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="676" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UCI HABILITADA" sheetId="2" r:id="rId1"/>
@@ -259,7 +259,17 @@
     <cellStyle name="Millares [0] 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="255">
+  <dxfs count="256">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3120,12 +3130,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:OR20"/>
+  <dimension ref="A1:OY20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="OJ1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="OO1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="OL18" sqref="OL18:OR18"/>
+      <selection pane="topRight" activeCell="OS18" sqref="OS18:OY18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3146,7 +3156,7 @@
     <col min="276" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -4371,8 +4381,29 @@
       <c r="OR1" s="8">
         <v>44341</v>
       </c>
+      <c r="OS1" s="8">
+        <v>44342</v>
+      </c>
+      <c r="OT1" s="8">
+        <v>44343</v>
+      </c>
+      <c r="OU1" s="8">
+        <v>44344</v>
+      </c>
+      <c r="OV1" s="8">
+        <v>44345</v>
+      </c>
+      <c r="OW1" s="8">
+        <v>44346</v>
+      </c>
+      <c r="OX1" s="8">
+        <v>44347</v>
+      </c>
+      <c r="OY1" s="8">
+        <v>44348</v>
+      </c>
     </row>
-    <row r="2" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5597,8 +5628,29 @@
       <c r="OR2" s="11">
         <v>40</v>
       </c>
+      <c r="OS2" s="11">
+        <v>40</v>
+      </c>
+      <c r="OT2" s="11">
+        <v>38</v>
+      </c>
+      <c r="OU2" s="11">
+        <v>36</v>
+      </c>
+      <c r="OV2" s="11">
+        <v>36</v>
+      </c>
+      <c r="OW2" s="11">
+        <v>34</v>
+      </c>
+      <c r="OX2" s="11">
+        <v>34</v>
+      </c>
+      <c r="OY2" s="11">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -6823,8 +6875,29 @@
       <c r="OR3" s="11">
         <v>62</v>
       </c>
+      <c r="OS3" s="11">
+        <v>62</v>
+      </c>
+      <c r="OT3" s="11">
+        <v>62</v>
+      </c>
+      <c r="OU3" s="11">
+        <v>62</v>
+      </c>
+      <c r="OV3" s="11">
+        <v>62</v>
+      </c>
+      <c r="OW3" s="11">
+        <v>62</v>
+      </c>
+      <c r="OX3" s="11">
+        <v>62</v>
+      </c>
+      <c r="OY3" s="11">
+        <v>62</v>
+      </c>
     </row>
-    <row r="4" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -8049,8 +8122,29 @@
       <c r="OR4" s="11">
         <v>164</v>
       </c>
+      <c r="OS4" s="11">
+        <v>165</v>
+      </c>
+      <c r="OT4" s="11">
+        <v>165</v>
+      </c>
+      <c r="OU4" s="11">
+        <v>164</v>
+      </c>
+      <c r="OV4" s="11">
+        <v>165</v>
+      </c>
+      <c r="OW4" s="11">
+        <v>166</v>
+      </c>
+      <c r="OX4" s="11">
+        <v>166</v>
+      </c>
+      <c r="OY4" s="11">
+        <v>166</v>
+      </c>
     </row>
-    <row r="5" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -9275,8 +9369,29 @@
       <c r="OR5" s="11">
         <v>34</v>
       </c>
+      <c r="OS5" s="11">
+        <v>34</v>
+      </c>
+      <c r="OT5" s="11">
+        <v>34</v>
+      </c>
+      <c r="OU5" s="11">
+        <v>34</v>
+      </c>
+      <c r="OV5" s="11">
+        <v>34</v>
+      </c>
+      <c r="OW5" s="11">
+        <v>34</v>
+      </c>
+      <c r="OX5" s="11">
+        <v>34</v>
+      </c>
+      <c r="OY5" s="11">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -10501,8 +10616,29 @@
       <c r="OR6" s="11">
         <v>132</v>
       </c>
+      <c r="OS6" s="11">
+        <v>134</v>
+      </c>
+      <c r="OT6" s="11">
+        <v>133</v>
+      </c>
+      <c r="OU6" s="11">
+        <v>138</v>
+      </c>
+      <c r="OV6" s="11">
+        <v>138</v>
+      </c>
+      <c r="OW6" s="11">
+        <v>133</v>
+      </c>
+      <c r="OX6" s="11">
+        <v>126</v>
+      </c>
+      <c r="OY6" s="11">
+        <v>132</v>
+      </c>
     </row>
-    <row r="7" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
@@ -11727,8 +11863,29 @@
       <c r="OR7" s="11">
         <v>329</v>
       </c>
+      <c r="OS7" s="11">
+        <v>329</v>
+      </c>
+      <c r="OT7" s="11">
+        <v>331</v>
+      </c>
+      <c r="OU7" s="11">
+        <v>331</v>
+      </c>
+      <c r="OV7" s="11">
+        <v>332</v>
+      </c>
+      <c r="OW7" s="11">
+        <v>332</v>
+      </c>
+      <c r="OX7" s="11">
+        <v>332</v>
+      </c>
+      <c r="OY7" s="11">
+        <v>332</v>
+      </c>
     </row>
-    <row r="8" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -12953,8 +13110,29 @@
       <c r="OR8" s="11">
         <v>2577</v>
       </c>
+      <c r="OS8" s="11">
+        <v>2572</v>
+      </c>
+      <c r="OT8" s="11">
+        <v>2567</v>
+      </c>
+      <c r="OU8" s="11">
+        <v>2572</v>
+      </c>
+      <c r="OV8" s="11">
+        <v>2575</v>
+      </c>
+      <c r="OW8" s="11">
+        <v>2577</v>
+      </c>
+      <c r="OX8" s="11">
+        <v>2577</v>
+      </c>
+      <c r="OY8" s="11">
+        <v>2571</v>
+      </c>
     </row>
-    <row r="9" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
@@ -14179,8 +14357,29 @@
       <c r="OR9" s="11">
         <v>206</v>
       </c>
+      <c r="OS9" s="11">
+        <v>203</v>
+      </c>
+      <c r="OT9" s="11">
+        <v>203</v>
+      </c>
+      <c r="OU9" s="11">
+        <v>206</v>
+      </c>
+      <c r="OV9" s="11">
+        <v>206</v>
+      </c>
+      <c r="OW9" s="11">
+        <v>206</v>
+      </c>
+      <c r="OX9" s="11">
+        <v>206</v>
+      </c>
+      <c r="OY9" s="11">
+        <v>206</v>
+      </c>
     </row>
-    <row r="10" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
@@ -15405,8 +15604,29 @@
       <c r="OR10" s="11">
         <v>138</v>
       </c>
+      <c r="OS10" s="11">
+        <v>138</v>
+      </c>
+      <c r="OT10" s="11">
+        <v>157</v>
+      </c>
+      <c r="OU10" s="11">
+        <v>157</v>
+      </c>
+      <c r="OV10" s="11">
+        <v>157</v>
+      </c>
+      <c r="OW10" s="11">
+        <v>144</v>
+      </c>
+      <c r="OX10" s="11">
+        <v>143</v>
+      </c>
+      <c r="OY10" s="11">
+        <v>157</v>
+      </c>
     </row>
-    <row r="11" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
@@ -16631,8 +16851,29 @@
       <c r="OR11" s="11">
         <v>73</v>
       </c>
+      <c r="OS11" s="11">
+        <v>73</v>
+      </c>
+      <c r="OT11" s="11">
+        <v>73</v>
+      </c>
+      <c r="OU11" s="11">
+        <v>73</v>
+      </c>
+      <c r="OV11" s="11">
+        <v>73</v>
+      </c>
+      <c r="OW11" s="11">
+        <v>73</v>
+      </c>
+      <c r="OX11" s="11">
+        <v>73</v>
+      </c>
+      <c r="OY11" s="11">
+        <v>73</v>
+      </c>
     </row>
-    <row r="12" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
@@ -17857,8 +18098,29 @@
       <c r="OR12" s="11">
         <v>306</v>
       </c>
+      <c r="OS12" s="11">
+        <v>309</v>
+      </c>
+      <c r="OT12" s="11">
+        <v>309</v>
+      </c>
+      <c r="OU12" s="11">
+        <v>309</v>
+      </c>
+      <c r="OV12" s="11">
+        <v>309</v>
+      </c>
+      <c r="OW12" s="11">
+        <v>309</v>
+      </c>
+      <c r="OX12" s="11">
+        <v>309</v>
+      </c>
+      <c r="OY12" s="11">
+        <v>310</v>
+      </c>
     </row>
-    <row r="13" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
@@ -19083,8 +19345,29 @@
       <c r="OR13" s="11">
         <v>150</v>
       </c>
+      <c r="OS13" s="11">
+        <v>150</v>
+      </c>
+      <c r="OT13" s="11">
+        <v>150</v>
+      </c>
+      <c r="OU13" s="11">
+        <v>150</v>
+      </c>
+      <c r="OV13" s="11">
+        <v>150</v>
+      </c>
+      <c r="OW13" s="11">
+        <v>150</v>
+      </c>
+      <c r="OX13" s="11">
+        <v>150</v>
+      </c>
+      <c r="OY13" s="11">
+        <v>150</v>
+      </c>
     </row>
-    <row r="14" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
@@ -20309,8 +20592,29 @@
       <c r="OR14" s="11">
         <v>41</v>
       </c>
+      <c r="OS14" s="11">
+        <v>41</v>
+      </c>
+      <c r="OT14" s="11">
+        <v>41</v>
+      </c>
+      <c r="OU14" s="11">
+        <v>41</v>
+      </c>
+      <c r="OV14" s="11">
+        <v>41</v>
+      </c>
+      <c r="OW14" s="11">
+        <v>41</v>
+      </c>
+      <c r="OX14" s="11">
+        <v>41</v>
+      </c>
+      <c r="OY14" s="11">
+        <v>41</v>
+      </c>
     </row>
-    <row r="15" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
@@ -21535,8 +21839,29 @@
       <c r="OR15" s="11">
         <v>126</v>
       </c>
+      <c r="OS15" s="11">
+        <v>126</v>
+      </c>
+      <c r="OT15" s="11">
+        <v>126</v>
+      </c>
+      <c r="OU15" s="11">
+        <v>128</v>
+      </c>
+      <c r="OV15" s="11">
+        <v>129</v>
+      </c>
+      <c r="OW15" s="11">
+        <v>130</v>
+      </c>
+      <c r="OX15" s="11">
+        <v>129</v>
+      </c>
+      <c r="OY15" s="11">
+        <v>129</v>
+      </c>
     </row>
-    <row r="16" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
@@ -22761,8 +23086,29 @@
       <c r="OR16" s="11">
         <v>10</v>
       </c>
+      <c r="OS16" s="11">
+        <v>10</v>
+      </c>
+      <c r="OT16" s="11">
+        <v>10</v>
+      </c>
+      <c r="OU16" s="11">
+        <v>10</v>
+      </c>
+      <c r="OV16" s="11">
+        <v>10</v>
+      </c>
+      <c r="OW16" s="11">
+        <v>10</v>
+      </c>
+      <c r="OX16" s="11">
+        <v>10</v>
+      </c>
+      <c r="OY16" s="11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="17" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -23987,8 +24333,29 @@
       <c r="OR17" s="11">
         <v>47</v>
       </c>
+      <c r="OS17" s="11">
+        <v>47</v>
+      </c>
+      <c r="OT17" s="11">
+        <v>47</v>
+      </c>
+      <c r="OU17" s="11">
+        <v>47</v>
+      </c>
+      <c r="OV17" s="11">
+        <v>43</v>
+      </c>
+      <c r="OW17" s="11">
+        <v>43</v>
+      </c>
+      <c r="OX17" s="11">
+        <v>43</v>
+      </c>
+      <c r="OY17" s="11">
+        <v>43</v>
+      </c>
     </row>
-    <row r="18" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -25148,7 +25515,7 @@
         <v>3931</v>
       </c>
       <c r="MU18" s="6">
-        <f t="shared" ref="MU18:OR18" si="7">SUM(MU2:MU17)</f>
+        <f t="shared" ref="MU18:OY18" si="7">SUM(MU2:MU17)</f>
         <v>3954</v>
       </c>
       <c r="MV18" s="6">
@@ -25347,13 +25714,41 @@
         <f t="shared" si="7"/>
         <v>4435</v>
       </c>
+      <c r="OS18" s="6">
+        <f t="shared" si="7"/>
+        <v>4433</v>
+      </c>
+      <c r="OT18" s="6">
+        <f t="shared" si="7"/>
+        <v>4446</v>
+      </c>
+      <c r="OU18" s="6">
+        <f t="shared" si="7"/>
+        <v>4458</v>
+      </c>
+      <c r="OV18" s="6">
+        <f t="shared" si="7"/>
+        <v>4460</v>
+      </c>
+      <c r="OW18" s="6">
+        <f t="shared" si="7"/>
+        <v>4444</v>
+      </c>
+      <c r="OX18" s="6">
+        <f t="shared" si="7"/>
+        <v>4435</v>
+      </c>
+      <c r="OY18" s="6">
+        <f t="shared" si="7"/>
+        <v>4450</v>
+      </c>
     </row>
-    <row r="19" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:415" x14ac:dyDescent="0.25">
       <c r="HV19" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:415" x14ac:dyDescent="0.25">
       <c r="JV20" s="19"/>
       <c r="JW20" s="19"/>
       <c r="JX20" s="19"/>
@@ -25371,12 +25766,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:OR34"/>
+  <dimension ref="A1:OY34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="OE1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="OQ1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="OL2" sqref="OL2"/>
+      <selection pane="topRight" activeCell="OS18" sqref="OS18:OY18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25396,7 +25791,7 @@
     <col min="272" max="272" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -26621,8 +27016,29 @@
       <c r="OR1" s="8">
         <v>44341</v>
       </c>
+      <c r="OS1" s="8">
+        <v>44342</v>
+      </c>
+      <c r="OT1" s="8">
+        <v>44343</v>
+      </c>
+      <c r="OU1" s="8">
+        <v>44344</v>
+      </c>
+      <c r="OV1" s="8">
+        <v>44345</v>
+      </c>
+      <c r="OW1" s="8">
+        <v>44346</v>
+      </c>
+      <c r="OX1" s="8">
+        <v>44347</v>
+      </c>
+      <c r="OY1" s="8">
+        <v>44348</v>
+      </c>
     </row>
-    <row r="2" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -27847,8 +28263,29 @@
       <c r="OR2">
         <v>31</v>
       </c>
+      <c r="OS2">
+        <v>30</v>
+      </c>
+      <c r="OT2">
+        <v>31</v>
+      </c>
+      <c r="OU2">
+        <v>31</v>
+      </c>
+      <c r="OV2">
+        <v>30</v>
+      </c>
+      <c r="OW2">
+        <v>29</v>
+      </c>
+      <c r="OX2">
+        <v>28</v>
+      </c>
+      <c r="OY2">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -29073,8 +29510,29 @@
       <c r="OR3">
         <v>52</v>
       </c>
+      <c r="OS3">
+        <v>51</v>
+      </c>
+      <c r="OT3">
+        <v>48</v>
+      </c>
+      <c r="OU3">
+        <v>51</v>
+      </c>
+      <c r="OV3">
+        <v>51</v>
+      </c>
+      <c r="OW3">
+        <v>51</v>
+      </c>
+      <c r="OX3">
+        <v>54</v>
+      </c>
+      <c r="OY3">
+        <v>55</v>
+      </c>
     </row>
-    <row r="4" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -30299,8 +30757,29 @@
       <c r="OR4">
         <v>93</v>
       </c>
+      <c r="OS4">
+        <v>91</v>
+      </c>
+      <c r="OT4">
+        <v>88</v>
+      </c>
+      <c r="OU4">
+        <v>91</v>
+      </c>
+      <c r="OV4">
+        <v>93</v>
+      </c>
+      <c r="OW4">
+        <v>91</v>
+      </c>
+      <c r="OX4">
+        <v>87</v>
+      </c>
+      <c r="OY4">
+        <v>90</v>
+      </c>
     </row>
-    <row r="5" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -31525,8 +32004,29 @@
       <c r="OR5">
         <v>23</v>
       </c>
+      <c r="OS5">
+        <v>23</v>
+      </c>
+      <c r="OT5">
+        <v>23</v>
+      </c>
+      <c r="OU5">
+        <v>24</v>
+      </c>
+      <c r="OV5">
+        <v>23</v>
+      </c>
+      <c r="OW5">
+        <v>24</v>
+      </c>
+      <c r="OX5">
+        <v>24</v>
+      </c>
+      <c r="OY5">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -32751,8 +33251,29 @@
       <c r="OR6">
         <v>92</v>
       </c>
+      <c r="OS6">
+        <v>89</v>
+      </c>
+      <c r="OT6">
+        <v>89</v>
+      </c>
+      <c r="OU6">
+        <v>88</v>
+      </c>
+      <c r="OV6">
+        <v>93</v>
+      </c>
+      <c r="OW6">
+        <v>89</v>
+      </c>
+      <c r="OX6">
+        <v>87</v>
+      </c>
+      <c r="OY6">
+        <v>95</v>
+      </c>
     </row>
-    <row r="7" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -33977,8 +34498,29 @@
       <c r="OR7">
         <v>211</v>
       </c>
+      <c r="OS7">
+        <v>223</v>
+      </c>
+      <c r="OT7">
+        <v>217</v>
+      </c>
+      <c r="OU7">
+        <v>207</v>
+      </c>
+      <c r="OV7">
+        <v>216</v>
+      </c>
+      <c r="OW7">
+        <v>213</v>
+      </c>
+      <c r="OX7">
+        <v>213</v>
+      </c>
+      <c r="OY7">
+        <v>217</v>
+      </c>
     </row>
-    <row r="8" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -35203,8 +35745,29 @@
       <c r="OR8">
         <v>1805</v>
       </c>
+      <c r="OS8">
+        <v>1792</v>
+      </c>
+      <c r="OT8">
+        <v>1787</v>
+      </c>
+      <c r="OU8">
+        <v>1835</v>
+      </c>
+      <c r="OV8">
+        <v>1840</v>
+      </c>
+      <c r="OW8">
+        <v>1878</v>
+      </c>
+      <c r="OX8">
+        <v>1881</v>
+      </c>
+      <c r="OY8">
+        <v>1908</v>
+      </c>
     </row>
-    <row r="9" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -36429,8 +36992,29 @@
       <c r="OR9">
         <v>128</v>
       </c>
+      <c r="OS9">
+        <v>135</v>
+      </c>
+      <c r="OT9">
+        <v>142</v>
+      </c>
+      <c r="OU9">
+        <v>142</v>
+      </c>
+      <c r="OV9">
+        <v>141</v>
+      </c>
+      <c r="OW9">
+        <v>148</v>
+      </c>
+      <c r="OX9">
+        <v>154</v>
+      </c>
+      <c r="OY9">
+        <v>155</v>
+      </c>
     </row>
-    <row r="10" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -37655,8 +38239,29 @@
       <c r="OR10">
         <v>109</v>
       </c>
+      <c r="OS10">
+        <v>106</v>
+      </c>
+      <c r="OT10">
+        <v>104</v>
+      </c>
+      <c r="OU10">
+        <v>105</v>
+      </c>
+      <c r="OV10">
+        <v>106</v>
+      </c>
+      <c r="OW10">
+        <v>110</v>
+      </c>
+      <c r="OX10">
+        <v>110</v>
+      </c>
+      <c r="OY10">
+        <v>111</v>
+      </c>
     </row>
-    <row r="11" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -38881,8 +39486,29 @@
       <c r="OR11">
         <v>53</v>
       </c>
+      <c r="OS11">
+        <v>54</v>
+      </c>
+      <c r="OT11">
+        <v>53</v>
+      </c>
+      <c r="OU11">
+        <v>51</v>
+      </c>
+      <c r="OV11">
+        <v>45</v>
+      </c>
+      <c r="OW11">
+        <v>47</v>
+      </c>
+      <c r="OX11">
+        <v>50</v>
+      </c>
+      <c r="OY11">
+        <v>52</v>
+      </c>
     </row>
-    <row r="12" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -40107,8 +40733,29 @@
       <c r="OR12">
         <v>184</v>
       </c>
+      <c r="OS12">
+        <v>182</v>
+      </c>
+      <c r="OT12">
+        <v>181</v>
+      </c>
+      <c r="OU12">
+        <v>190</v>
+      </c>
+      <c r="OV12">
+        <v>195</v>
+      </c>
+      <c r="OW12">
+        <v>185</v>
+      </c>
+      <c r="OX12">
+        <v>189</v>
+      </c>
+      <c r="OY12">
+        <v>196</v>
+      </c>
     </row>
-    <row r="13" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -41333,8 +41980,29 @@
       <c r="OR13">
         <v>100</v>
       </c>
+      <c r="OS13">
+        <v>101</v>
+      </c>
+      <c r="OT13">
+        <v>104</v>
+      </c>
+      <c r="OU13">
+        <v>103</v>
+      </c>
+      <c r="OV13">
+        <v>102</v>
+      </c>
+      <c r="OW13">
+        <v>106</v>
+      </c>
+      <c r="OX13">
+        <v>108</v>
+      </c>
+      <c r="OY13">
+        <v>105</v>
+      </c>
     </row>
-    <row r="14" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -42559,8 +43227,29 @@
       <c r="OR14">
         <v>24</v>
       </c>
+      <c r="OS14">
+        <v>24</v>
+      </c>
+      <c r="OT14">
+        <v>25</v>
+      </c>
+      <c r="OU14">
+        <v>26</v>
+      </c>
+      <c r="OV14">
+        <v>28</v>
+      </c>
+      <c r="OW14">
+        <v>30</v>
+      </c>
+      <c r="OX14">
+        <v>29</v>
+      </c>
+      <c r="OY14">
+        <v>30</v>
+      </c>
     </row>
-    <row r="15" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -43785,8 +44474,29 @@
       <c r="OR15">
         <v>82</v>
       </c>
+      <c r="OS15">
+        <v>82</v>
+      </c>
+      <c r="OT15">
+        <v>86</v>
+      </c>
+      <c r="OU15">
+        <v>89</v>
+      </c>
+      <c r="OV15">
+        <v>92</v>
+      </c>
+      <c r="OW15">
+        <v>91</v>
+      </c>
+      <c r="OX15">
+        <v>91</v>
+      </c>
+      <c r="OY15">
+        <v>92</v>
+      </c>
     </row>
-    <row r="16" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -45011,8 +45721,29 @@
       <c r="OR16">
         <v>9</v>
       </c>
+      <c r="OS16">
+        <v>10</v>
+      </c>
+      <c r="OT16">
+        <v>10</v>
+      </c>
+      <c r="OU16">
+        <v>10</v>
+      </c>
+      <c r="OV16">
+        <v>10</v>
+      </c>
+      <c r="OW16">
+        <v>10</v>
+      </c>
+      <c r="OX16">
+        <v>10</v>
+      </c>
+      <c r="OY16">
+        <v>10</v>
+      </c>
     </row>
-    <row r="17" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -46237,8 +46968,29 @@
       <c r="OR17">
         <v>30</v>
       </c>
+      <c r="OS17">
+        <v>30</v>
+      </c>
+      <c r="OT17">
+        <v>26</v>
+      </c>
+      <c r="OU17">
+        <v>24</v>
+      </c>
+      <c r="OV17">
+        <v>27</v>
+      </c>
+      <c r="OW17">
+        <v>25</v>
+      </c>
+      <c r="OX17">
+        <v>27</v>
+      </c>
+      <c r="OY17">
+        <v>29</v>
+      </c>
     </row>
-    <row r="18" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -47555,7 +48307,7 @@
         <v>2979</v>
       </c>
       <c r="OL18" s="6">
-        <f t="shared" ref="OL18:OR18" si="2">SUM(OL2:OL17)</f>
+        <f t="shared" ref="OL18:OY18" si="2">SUM(OL2:OL17)</f>
         <v>2972</v>
       </c>
       <c r="OM18" s="6">
@@ -47582,50 +48334,78 @@
         <f t="shared" si="2"/>
         <v>3026</v>
       </c>
+      <c r="OS18" s="6">
+        <f t="shared" si="2"/>
+        <v>3023</v>
+      </c>
+      <c r="OT18" s="6">
+        <f t="shared" si="2"/>
+        <v>3014</v>
+      </c>
+      <c r="OU18" s="6">
+        <f t="shared" si="2"/>
+        <v>3067</v>
+      </c>
+      <c r="OV18" s="6">
+        <f t="shared" si="2"/>
+        <v>3092</v>
+      </c>
+      <c r="OW18" s="6">
+        <f t="shared" si="2"/>
+        <v>3127</v>
+      </c>
+      <c r="OX18" s="6">
+        <f t="shared" si="2"/>
+        <v>3142</v>
+      </c>
+      <c r="OY18" s="6">
+        <f t="shared" si="2"/>
+        <v>3193</v>
+      </c>
     </row>
-    <row r="19" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:415" x14ac:dyDescent="0.25">
       <c r="AZ19" s="1"/>
     </row>
-    <row r="20" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:415" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="AZ20" s="1"/>
     </row>
-    <row r="21" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:415" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="AZ21" s="1"/>
     </row>
-    <row r="22" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:415" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="AZ22" s="1"/>
     </row>
-    <row r="23" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:415" x14ac:dyDescent="0.25">
       <c r="AZ23" s="1"/>
     </row>
-    <row r="24" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:415" x14ac:dyDescent="0.25">
       <c r="AZ24" s="1"/>
     </row>
-    <row r="25" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:415" x14ac:dyDescent="0.25">
       <c r="AZ25" s="1"/>
     </row>
-    <row r="26" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:415" x14ac:dyDescent="0.25">
       <c r="AZ26" s="1"/>
     </row>
-    <row r="27" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:415" x14ac:dyDescent="0.25">
       <c r="AZ27" s="1"/>
     </row>
-    <row r="28" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:415" x14ac:dyDescent="0.25">
       <c r="AZ28" s="1"/>
     </row>
-    <row r="29" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:415" x14ac:dyDescent="0.25">
       <c r="AZ29" s="1"/>
     </row>
-    <row r="30" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:415" x14ac:dyDescent="0.25">
       <c r="AZ30" s="1"/>
     </row>
-    <row r="31" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:415" x14ac:dyDescent="0.25">
       <c r="AZ31" s="1"/>
     </row>
-    <row r="32" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:415" x14ac:dyDescent="0.25">
       <c r="AZ32" s="1"/>
     </row>
     <row r="33" spans="52:52" x14ac:dyDescent="0.25">
@@ -47645,12 +48425,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:OR34"/>
+  <dimension ref="A1:OY34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="OJ1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="OP1" activePane="topRight" state="frozen"/>
       <selection activeCell="FW2" sqref="FW2:FW18"/>
-      <selection pane="topRight" activeCell="OL15" sqref="OL15"/>
+      <selection pane="topRight" activeCell="OW21" sqref="OW21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47667,7 +48447,7 @@
     <col min="262" max="274" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
@@ -48892,8 +49672,29 @@
       <c r="OR1" s="8">
         <v>44341</v>
       </c>
+      <c r="OS1" s="8">
+        <v>44342</v>
+      </c>
+      <c r="OT1" s="8">
+        <v>44343</v>
+      </c>
+      <c r="OU1" s="8">
+        <v>44344</v>
+      </c>
+      <c r="OV1" s="8">
+        <v>44345</v>
+      </c>
+      <c r="OW1" s="8">
+        <v>44346</v>
+      </c>
+      <c r="OX1" s="8">
+        <v>44347</v>
+      </c>
+      <c r="OY1" s="8">
+        <v>44348</v>
+      </c>
     </row>
-    <row r="2" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -50118,8 +50919,29 @@
       <c r="OR2">
         <v>7</v>
       </c>
+      <c r="OS2">
+        <v>4</v>
+      </c>
+      <c r="OT2">
+        <v>4</v>
+      </c>
+      <c r="OU2">
+        <v>3</v>
+      </c>
+      <c r="OV2">
+        <v>3</v>
+      </c>
+      <c r="OW2">
+        <v>2</v>
+      </c>
+      <c r="OX2">
+        <v>3</v>
+      </c>
+      <c r="OY2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -51344,8 +52166,29 @@
       <c r="OR3">
         <v>6</v>
       </c>
+      <c r="OS3">
+        <v>7</v>
+      </c>
+      <c r="OT3">
+        <v>6</v>
+      </c>
+      <c r="OU3">
+        <v>6</v>
+      </c>
+      <c r="OV3">
+        <v>7</v>
+      </c>
+      <c r="OW3">
+        <v>7</v>
+      </c>
+      <c r="OX3">
+        <v>6</v>
+      </c>
+      <c r="OY3">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -52570,8 +53413,29 @@
       <c r="OR4">
         <v>62</v>
       </c>
+      <c r="OS4">
+        <v>63</v>
+      </c>
+      <c r="OT4">
+        <v>68</v>
+      </c>
+      <c r="OU4">
+        <v>65</v>
+      </c>
+      <c r="OV4">
+        <v>61</v>
+      </c>
+      <c r="OW4">
+        <v>65</v>
+      </c>
+      <c r="OX4">
+        <v>66</v>
+      </c>
+      <c r="OY4">
+        <v>63</v>
+      </c>
     </row>
-    <row r="5" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -53796,8 +54660,29 @@
       <c r="OR5">
         <v>6</v>
       </c>
+      <c r="OS5">
+        <v>5</v>
+      </c>
+      <c r="OT5">
+        <v>6</v>
+      </c>
+      <c r="OU5">
+        <v>4</v>
+      </c>
+      <c r="OV5">
+        <v>5</v>
+      </c>
+      <c r="OW5">
+        <v>4</v>
+      </c>
+      <c r="OX5">
+        <v>4</v>
+      </c>
+      <c r="OY5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -55022,8 +55907,29 @@
       <c r="OR6">
         <v>35</v>
       </c>
+      <c r="OS6">
+        <v>37</v>
+      </c>
+      <c r="OT6">
+        <v>36</v>
+      </c>
+      <c r="OU6">
+        <v>47</v>
+      </c>
+      <c r="OV6">
+        <v>37</v>
+      </c>
+      <c r="OW6">
+        <v>38</v>
+      </c>
+      <c r="OX6">
+        <v>35</v>
+      </c>
+      <c r="OY6">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -56248,8 +57154,29 @@
       <c r="OR7">
         <v>110</v>
       </c>
+      <c r="OS7">
+        <v>92</v>
+      </c>
+      <c r="OT7">
+        <v>101</v>
+      </c>
+      <c r="OU7">
+        <v>108</v>
+      </c>
+      <c r="OV7">
+        <v>101</v>
+      </c>
+      <c r="OW7">
+        <v>109</v>
+      </c>
+      <c r="OX7">
+        <v>110</v>
+      </c>
+      <c r="OY7">
+        <v>106</v>
+      </c>
     </row>
-    <row r="8" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -57474,8 +58401,29 @@
       <c r="OR8">
         <v>713</v>
       </c>
+      <c r="OS8">
+        <v>715</v>
+      </c>
+      <c r="OT8">
+        <v>719</v>
+      </c>
+      <c r="OU8">
+        <v>674</v>
+      </c>
+      <c r="OV8">
+        <v>687</v>
+      </c>
+      <c r="OW8">
+        <v>653</v>
+      </c>
+      <c r="OX8">
+        <v>653</v>
+      </c>
+      <c r="OY8">
+        <v>628</v>
+      </c>
     </row>
-    <row r="9" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -58700,8 +59648,29 @@
       <c r="OR9">
         <v>47</v>
       </c>
+      <c r="OS9">
+        <v>44</v>
+      </c>
+      <c r="OT9">
+        <v>37</v>
+      </c>
+      <c r="OU9">
+        <v>43</v>
+      </c>
+      <c r="OV9">
+        <v>47</v>
+      </c>
+      <c r="OW9">
+        <v>35</v>
+      </c>
+      <c r="OX9">
+        <v>39</v>
+      </c>
+      <c r="OY9">
+        <v>36</v>
+      </c>
     </row>
-    <row r="10" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -59926,8 +60895,29 @@
       <c r="OR10">
         <v>26</v>
       </c>
+      <c r="OS10">
+        <v>26</v>
+      </c>
+      <c r="OT10">
+        <v>25</v>
+      </c>
+      <c r="OU10">
+        <v>27</v>
+      </c>
+      <c r="OV10">
+        <v>26</v>
+      </c>
+      <c r="OW10">
+        <v>25</v>
+      </c>
+      <c r="OX10">
+        <v>26</v>
+      </c>
+      <c r="OY10">
+        <v>26</v>
+      </c>
     </row>
-    <row r="11" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -61152,8 +62142,29 @@
       <c r="OR11">
         <v>16</v>
       </c>
+      <c r="OS11">
+        <v>14</v>
+      </c>
+      <c r="OT11">
+        <v>14</v>
+      </c>
+      <c r="OU11">
+        <v>16</v>
+      </c>
+      <c r="OV11">
+        <v>13</v>
+      </c>
+      <c r="OW11">
+        <v>11</v>
+      </c>
+      <c r="OX11">
+        <v>16</v>
+      </c>
+      <c r="OY11">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -62378,8 +63389,29 @@
       <c r="OR12">
         <v>94</v>
       </c>
+      <c r="OS12">
+        <v>99</v>
+      </c>
+      <c r="OT12">
+        <v>100</v>
+      </c>
+      <c r="OU12">
+        <v>95</v>
+      </c>
+      <c r="OV12">
+        <v>95</v>
+      </c>
+      <c r="OW12">
+        <v>99</v>
+      </c>
+      <c r="OX12">
+        <v>96</v>
+      </c>
+      <c r="OY12">
+        <v>93</v>
+      </c>
     </row>
-    <row r="13" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -63604,8 +64636,29 @@
       <c r="OR13">
         <v>41</v>
       </c>
+      <c r="OS13">
+        <v>39</v>
+      </c>
+      <c r="OT13">
+        <v>37</v>
+      </c>
+      <c r="OU13">
+        <v>40</v>
+      </c>
+      <c r="OV13">
+        <v>38</v>
+      </c>
+      <c r="OW13">
+        <v>36</v>
+      </c>
+      <c r="OX13">
+        <v>35</v>
+      </c>
+      <c r="OY13">
+        <v>36</v>
+      </c>
     </row>
-    <row r="14" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -64830,8 +65883,29 @@
       <c r="OR14">
         <v>13</v>
       </c>
+      <c r="OS14">
+        <v>15</v>
+      </c>
+      <c r="OT14">
+        <v>14</v>
+      </c>
+      <c r="OU14">
+        <v>12</v>
+      </c>
+      <c r="OV14">
+        <v>12</v>
+      </c>
+      <c r="OW14">
+        <v>11</v>
+      </c>
+      <c r="OX14">
+        <v>10</v>
+      </c>
+      <c r="OY14">
+        <v>10</v>
+      </c>
     </row>
-    <row r="15" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -66056,8 +67130,29 @@
       <c r="OR15">
         <v>41</v>
       </c>
+      <c r="OS15">
+        <v>39</v>
+      </c>
+      <c r="OT15">
+        <v>38</v>
+      </c>
+      <c r="OU15">
+        <v>33</v>
+      </c>
+      <c r="OV15">
+        <v>34</v>
+      </c>
+      <c r="OW15">
+        <v>35</v>
+      </c>
+      <c r="OX15">
+        <v>33</v>
+      </c>
+      <c r="OY15">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -67282,8 +68377,29 @@
       <c r="OR16">
         <v>1</v>
       </c>
+      <c r="OS16">
+        <v>0</v>
+      </c>
+      <c r="OT16">
+        <v>0</v>
+      </c>
+      <c r="OU16">
+        <v>0</v>
+      </c>
+      <c r="OV16">
+        <v>0</v>
+      </c>
+      <c r="OW16">
+        <v>0</v>
+      </c>
+      <c r="OX16">
+        <v>0</v>
+      </c>
+      <c r="OY16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -68508,8 +69624,29 @@
       <c r="OR17">
         <v>10</v>
       </c>
+      <c r="OS17">
+        <v>7</v>
+      </c>
+      <c r="OT17">
+        <v>10</v>
+      </c>
+      <c r="OU17">
+        <v>11</v>
+      </c>
+      <c r="OV17">
+        <v>7</v>
+      </c>
+      <c r="OW17">
+        <v>9</v>
+      </c>
+      <c r="OX17">
+        <v>11</v>
+      </c>
+      <c r="OY17">
+        <v>10</v>
+      </c>
     </row>
-    <row r="18" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -69734,48 +70871,69 @@
       <c r="OR18" s="20">
         <v>1228</v>
       </c>
+      <c r="OS18" s="20">
+        <v>1206</v>
+      </c>
+      <c r="OT18" s="20">
+        <v>1215</v>
+      </c>
+      <c r="OU18" s="20">
+        <v>1184</v>
+      </c>
+      <c r="OV18" s="20">
+        <v>1173</v>
+      </c>
+      <c r="OW18" s="20">
+        <v>1139</v>
+      </c>
+      <c r="OX18" s="20">
+        <v>1143</v>
+      </c>
+      <c r="OY18" s="20">
+        <v>1110</v>
+      </c>
     </row>
-    <row r="19" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:415" x14ac:dyDescent="0.25">
       <c r="BA19" s="1"/>
       <c r="KP19" s="9"/>
     </row>
-    <row r="20" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:415" x14ac:dyDescent="0.25">
       <c r="BA20" s="1"/>
     </row>
-    <row r="21" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:415" x14ac:dyDescent="0.25">
       <c r="BA21" s="1"/>
     </row>
-    <row r="22" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:415" x14ac:dyDescent="0.25">
       <c r="BA22" s="1"/>
     </row>
-    <row r="23" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:415" x14ac:dyDescent="0.25">
       <c r="BA23" s="1"/>
     </row>
-    <row r="24" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:415" x14ac:dyDescent="0.25">
       <c r="BA24" s="1"/>
     </row>
-    <row r="25" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:415" x14ac:dyDescent="0.25">
       <c r="BA25" s="1"/>
     </row>
-    <row r="26" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:415" x14ac:dyDescent="0.25">
       <c r="BA26" s="1"/>
     </row>
-    <row r="27" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:415" x14ac:dyDescent="0.25">
       <c r="BA27" s="1"/>
     </row>
-    <row r="28" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:415" x14ac:dyDescent="0.25">
       <c r="BA28" s="1"/>
     </row>
-    <row r="29" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:415" x14ac:dyDescent="0.25">
       <c r="BA29" s="1"/>
     </row>
-    <row r="30" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:415" x14ac:dyDescent="0.25">
       <c r="BA30" s="1"/>
     </row>
-    <row r="31" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:415" x14ac:dyDescent="0.25">
       <c r="BA31" s="1"/>
     </row>
-    <row r="32" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:415" x14ac:dyDescent="0.25">
       <c r="BA32" s="1"/>
     </row>
     <row r="33" spans="53:53" x14ac:dyDescent="0.25">
@@ -69786,1177 +70944,1177 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:JP17">
-    <cfRule type="cellIs" dxfId="254" priority="317" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="317" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DE2:DH2">
-    <cfRule type="cellIs" dxfId="253" priority="316" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="316" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL2">
-    <cfRule type="cellIs" dxfId="252" priority="236" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="236" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL2">
-    <cfRule type="cellIs" dxfId="251" priority="235" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="235" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:JP17 B18:JN18">
-    <cfRule type="cellIs" dxfId="250" priority="238" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="238" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:JP17">
-    <cfRule type="cellIs" dxfId="249" priority="237" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="237" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI3:DL18">
-    <cfRule type="cellIs" dxfId="248" priority="234" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="234" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL17">
-    <cfRule type="cellIs" dxfId="247" priority="233" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="233" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE2">
-    <cfRule type="cellIs" dxfId="246" priority="232" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="232" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE2">
-    <cfRule type="cellIs" dxfId="245" priority="231" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="231" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM3:FE18">
-    <cfRule type="cellIs" dxfId="244" priority="230" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="230" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE17">
-    <cfRule type="cellIs" dxfId="243" priority="229" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="229" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2">
-    <cfRule type="cellIs" dxfId="242" priority="228" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="228" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2">
-    <cfRule type="cellIs" dxfId="241" priority="227" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="227" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF3:FF18">
-    <cfRule type="cellIs" dxfId="240" priority="226" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="226" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2:FF17">
-    <cfRule type="cellIs" dxfId="239" priority="225" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="225" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2">
-    <cfRule type="cellIs" dxfId="238" priority="224" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="224" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2">
-    <cfRule type="cellIs" dxfId="237" priority="223" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="223" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG3:FG18">
-    <cfRule type="cellIs" dxfId="236" priority="222" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="222" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2:FG17">
-    <cfRule type="cellIs" dxfId="235" priority="221" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="221" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2">
-    <cfRule type="cellIs" dxfId="234" priority="220" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="220" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2">
-    <cfRule type="cellIs" dxfId="233" priority="219" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="219" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH3:FH18">
-    <cfRule type="cellIs" dxfId="232" priority="218" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="218" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2:FH17">
-    <cfRule type="cellIs" dxfId="231" priority="217" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="217" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2">
-    <cfRule type="cellIs" dxfId="230" priority="216" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="216" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2">
-    <cfRule type="cellIs" dxfId="229" priority="215" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="215" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI3:FI18">
-    <cfRule type="cellIs" dxfId="228" priority="214" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="214" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2:FI17">
-    <cfRule type="cellIs" dxfId="227" priority="213" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="213" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2">
-    <cfRule type="cellIs" dxfId="226" priority="212" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="212" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2">
-    <cfRule type="cellIs" dxfId="225" priority="211" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="211" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ3:FJ18">
-    <cfRule type="cellIs" dxfId="224" priority="210" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="210" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2:FJ17">
-    <cfRule type="cellIs" dxfId="223" priority="209" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="209" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2">
-    <cfRule type="cellIs" dxfId="222" priority="208" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="208" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2">
-    <cfRule type="cellIs" dxfId="221" priority="207" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="207" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK3:FK18">
-    <cfRule type="cellIs" dxfId="220" priority="206" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="206" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2:FK17">
-    <cfRule type="cellIs" dxfId="219" priority="205" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="205" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2">
-    <cfRule type="cellIs" dxfId="218" priority="204" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="204" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2">
-    <cfRule type="cellIs" dxfId="217" priority="203" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="203" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL3:FL18">
-    <cfRule type="cellIs" dxfId="216" priority="202" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="202" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2:FL17">
-    <cfRule type="cellIs" dxfId="215" priority="201" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="201" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2">
-    <cfRule type="cellIs" dxfId="214" priority="200" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="200" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2">
-    <cfRule type="cellIs" dxfId="213" priority="199" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="199" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM3:FM18">
-    <cfRule type="cellIs" dxfId="212" priority="198" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="198" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2:FM17">
-    <cfRule type="cellIs" dxfId="211" priority="197" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="197" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2">
-    <cfRule type="cellIs" dxfId="210" priority="196" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="196" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2">
-    <cfRule type="cellIs" dxfId="209" priority="195" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="195" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN3:FN18">
-    <cfRule type="cellIs" dxfId="208" priority="194" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="194" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2:FN17">
-    <cfRule type="cellIs" dxfId="207" priority="193" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="193" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2">
-    <cfRule type="cellIs" dxfId="206" priority="192" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="192" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2">
-    <cfRule type="cellIs" dxfId="205" priority="191" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="191" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO3:FO18">
-    <cfRule type="cellIs" dxfId="204" priority="190" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="190" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2:FO17">
-    <cfRule type="cellIs" dxfId="203" priority="189" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="189" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP18:GB18">
-    <cfRule type="cellIs" dxfId="202" priority="188" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="188" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB2">
-    <cfRule type="cellIs" dxfId="201" priority="187" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="187" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB2">
-    <cfRule type="cellIs" dxfId="200" priority="186" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="186" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP3:GB17">
-    <cfRule type="cellIs" dxfId="199" priority="185" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="185" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB17">
-    <cfRule type="cellIs" dxfId="198" priority="184" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="184" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC18:GL18">
-    <cfRule type="cellIs" dxfId="197" priority="183" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="183" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL2">
-    <cfRule type="cellIs" dxfId="196" priority="182" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="182" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL2">
-    <cfRule type="cellIs" dxfId="195" priority="181" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="181" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC3:GL17">
-    <cfRule type="cellIs" dxfId="194" priority="180" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="180" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL17">
-    <cfRule type="cellIs" dxfId="193" priority="179" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="179" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM18">
-    <cfRule type="cellIs" dxfId="192" priority="178" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="178" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2">
-    <cfRule type="cellIs" dxfId="191" priority="177" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="177" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2">
-    <cfRule type="cellIs" dxfId="190" priority="176" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="176" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM3:GM17">
-    <cfRule type="cellIs" dxfId="189" priority="175" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="175" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2:GM17">
-    <cfRule type="cellIs" dxfId="188" priority="174" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="174" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN18">
-    <cfRule type="cellIs" dxfId="187" priority="173" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="173" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2">
-    <cfRule type="cellIs" dxfId="186" priority="172" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="172" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2">
-    <cfRule type="cellIs" dxfId="185" priority="171" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="171" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN3:GN17">
-    <cfRule type="cellIs" dxfId="184" priority="170" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="170" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2:GN17">
-    <cfRule type="cellIs" dxfId="183" priority="169" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="169" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO18">
-    <cfRule type="cellIs" dxfId="182" priority="168" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="168" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2">
-    <cfRule type="cellIs" dxfId="181" priority="167" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="167" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2">
-    <cfRule type="cellIs" dxfId="180" priority="166" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="166" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO3:GO17">
-    <cfRule type="cellIs" dxfId="179" priority="165" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="165" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2:GO17">
-    <cfRule type="cellIs" dxfId="178" priority="164" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="164" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP18">
-    <cfRule type="cellIs" dxfId="177" priority="163" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="163" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2">
-    <cfRule type="cellIs" dxfId="176" priority="162" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="162" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2">
-    <cfRule type="cellIs" dxfId="175" priority="161" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="161" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP3:GP17">
-    <cfRule type="cellIs" dxfId="174" priority="160" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="160" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2:GP17">
-    <cfRule type="cellIs" dxfId="173" priority="159" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="159" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ18:GV18">
-    <cfRule type="cellIs" dxfId="172" priority="158" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="158" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV2">
-    <cfRule type="cellIs" dxfId="171" priority="157" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="157" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV2">
-    <cfRule type="cellIs" dxfId="170" priority="156" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="156" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ3:GV17">
-    <cfRule type="cellIs" dxfId="169" priority="155" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="155" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV17">
-    <cfRule type="cellIs" dxfId="168" priority="154" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="154" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW18">
-    <cfRule type="cellIs" dxfId="167" priority="153" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="153" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2">
-    <cfRule type="cellIs" dxfId="166" priority="152" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="152" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2">
-    <cfRule type="cellIs" dxfId="165" priority="151" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="151" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW3:GW17">
-    <cfRule type="cellIs" dxfId="164" priority="150" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="150" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2:GW17">
-    <cfRule type="cellIs" dxfId="163" priority="149" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="149" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX18">
-    <cfRule type="cellIs" dxfId="162" priority="148" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="148" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2">
-    <cfRule type="cellIs" dxfId="161" priority="147" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="147" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2">
-    <cfRule type="cellIs" dxfId="160" priority="146" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="146" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX3:GX17">
-    <cfRule type="cellIs" dxfId="159" priority="145" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="145" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2:GX17">
-    <cfRule type="cellIs" dxfId="158" priority="144" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="144" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY18">
-    <cfRule type="cellIs" dxfId="157" priority="143" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="143" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2">
-    <cfRule type="cellIs" dxfId="156" priority="142" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="142" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2">
-    <cfRule type="cellIs" dxfId="155" priority="141" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="141" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY3:GY17">
-    <cfRule type="cellIs" dxfId="154" priority="140" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="140" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2:GY17">
-    <cfRule type="cellIs" dxfId="153" priority="139" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="139" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ18:HF18">
-    <cfRule type="cellIs" dxfId="152" priority="138" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="138" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF2">
-    <cfRule type="cellIs" dxfId="151" priority="137" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="137" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF2">
-    <cfRule type="cellIs" dxfId="150" priority="136" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="136" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ3:HF17">
-    <cfRule type="cellIs" dxfId="149" priority="135" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="135" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF17">
-    <cfRule type="cellIs" dxfId="148" priority="134" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="134" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG18">
-    <cfRule type="cellIs" dxfId="147" priority="128" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="128" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2">
-    <cfRule type="cellIs" dxfId="146" priority="127" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="127" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2">
-    <cfRule type="cellIs" dxfId="145" priority="126" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="126" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG3:HG17">
-    <cfRule type="cellIs" dxfId="144" priority="125" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="125" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2:HG17">
-    <cfRule type="cellIs" dxfId="143" priority="124" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="124" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH18">
-    <cfRule type="cellIs" dxfId="142" priority="123" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="123" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2">
-    <cfRule type="cellIs" dxfId="141" priority="122" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="122" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2">
-    <cfRule type="cellIs" dxfId="140" priority="121" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="121" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH3:HH17">
-    <cfRule type="cellIs" dxfId="139" priority="120" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="120" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2:HH17">
-    <cfRule type="cellIs" dxfId="138" priority="119" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="119" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI18">
-    <cfRule type="cellIs" dxfId="137" priority="118" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="118" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2">
-    <cfRule type="cellIs" dxfId="136" priority="117" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="117" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2">
-    <cfRule type="cellIs" dxfId="135" priority="116" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="116" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI3:HI17">
-    <cfRule type="cellIs" dxfId="134" priority="115" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="115" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2:HI17">
-    <cfRule type="cellIs" dxfId="133" priority="114" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="114" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ18">
-    <cfRule type="cellIs" dxfId="132" priority="113" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="113" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2">
-    <cfRule type="cellIs" dxfId="131" priority="112" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="112" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2">
-    <cfRule type="cellIs" dxfId="130" priority="111" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="111" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ3:HJ17">
-    <cfRule type="cellIs" dxfId="129" priority="110" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="110" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2:HJ17">
-    <cfRule type="cellIs" dxfId="128" priority="109" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="109" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK18">
-    <cfRule type="cellIs" dxfId="127" priority="108" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="108" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2">
-    <cfRule type="cellIs" dxfId="126" priority="107" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="107" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2">
-    <cfRule type="cellIs" dxfId="125" priority="106" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="106" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK3:HK17">
-    <cfRule type="cellIs" dxfId="124" priority="105" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="105" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2:HK17">
-    <cfRule type="cellIs" dxfId="123" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="104" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL18">
-    <cfRule type="cellIs" dxfId="122" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="103" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2">
-    <cfRule type="cellIs" dxfId="121" priority="102" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="102" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2">
-    <cfRule type="cellIs" dxfId="120" priority="101" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="101" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL3:HL17">
-    <cfRule type="cellIs" dxfId="119" priority="100" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="100" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2:HL17">
-    <cfRule type="cellIs" dxfId="118" priority="99" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="99" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM18">
-    <cfRule type="cellIs" dxfId="117" priority="98" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="98" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2">
-    <cfRule type="cellIs" dxfId="116" priority="97" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="97" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2">
-    <cfRule type="cellIs" dxfId="115" priority="96" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="96" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM3:HM17">
-    <cfRule type="cellIs" dxfId="114" priority="95" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="95" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2:HM17">
-    <cfRule type="cellIs" dxfId="113" priority="94" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="94" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN18">
-    <cfRule type="cellIs" dxfId="112" priority="93" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="93" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2">
-    <cfRule type="cellIs" dxfId="111" priority="92" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="92" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2">
-    <cfRule type="cellIs" dxfId="110" priority="91" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="91" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN3:HN17">
-    <cfRule type="cellIs" dxfId="109" priority="90" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="90" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2:HN17">
-    <cfRule type="cellIs" dxfId="108" priority="89" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="89" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO18">
-    <cfRule type="cellIs" dxfId="107" priority="88" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="88" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2">
-    <cfRule type="cellIs" dxfId="106" priority="87" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="87" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2">
-    <cfRule type="cellIs" dxfId="105" priority="86" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="86" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO3:HO17">
-    <cfRule type="cellIs" dxfId="104" priority="85" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="85" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2:HO17">
-    <cfRule type="cellIs" dxfId="103" priority="84" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="84" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP18">
-    <cfRule type="cellIs" dxfId="102" priority="83" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="83" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2">
-    <cfRule type="cellIs" dxfId="101" priority="82" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="82" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2">
-    <cfRule type="cellIs" dxfId="100" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="81" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP3:HP17">
-    <cfRule type="cellIs" dxfId="99" priority="80" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="80" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2:HP17">
-    <cfRule type="cellIs" dxfId="98" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="79" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ18">
-    <cfRule type="cellIs" dxfId="97" priority="78" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="78" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2">
-    <cfRule type="cellIs" dxfId="96" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="77" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2">
-    <cfRule type="cellIs" dxfId="95" priority="76" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="76" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ3:HQ17">
-    <cfRule type="cellIs" dxfId="94" priority="75" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="75" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2:HQ17">
-    <cfRule type="cellIs" dxfId="93" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="74" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR18:HZ18">
-    <cfRule type="cellIs" dxfId="92" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="73" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ2">
-    <cfRule type="cellIs" dxfId="91" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="72" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ2">
-    <cfRule type="cellIs" dxfId="90" priority="71" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="71" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR3:HZ17">
-    <cfRule type="cellIs" dxfId="89" priority="70" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="70" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ17">
-    <cfRule type="cellIs" dxfId="88" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="69" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA18">
-    <cfRule type="cellIs" dxfId="87" priority="68" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="68" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2">
-    <cfRule type="cellIs" dxfId="86" priority="67" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="67" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2">
-    <cfRule type="cellIs" dxfId="85" priority="66" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="66" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA3:IA17">
-    <cfRule type="cellIs" dxfId="84" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="65" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2:IA17">
-    <cfRule type="cellIs" dxfId="83" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="64" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB18:IG18">
-    <cfRule type="cellIs" dxfId="82" priority="63" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="63" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG2">
-    <cfRule type="cellIs" dxfId="81" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="62" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG2">
-    <cfRule type="cellIs" dxfId="80" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="61" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB3:IG17">
-    <cfRule type="cellIs" dxfId="79" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="60" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG17">
-    <cfRule type="cellIs" dxfId="78" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="59" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH18:IL18">
-    <cfRule type="cellIs" dxfId="77" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="58" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL2">
-    <cfRule type="cellIs" dxfId="76" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="57" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL2">
-    <cfRule type="cellIs" dxfId="75" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="56" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH3:IL17">
-    <cfRule type="cellIs" dxfId="74" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="55" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL17">
-    <cfRule type="cellIs" dxfId="73" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM18:IT18">
-    <cfRule type="cellIs" dxfId="72" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT2">
-    <cfRule type="cellIs" dxfId="71" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="52" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT2">
-    <cfRule type="cellIs" dxfId="70" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="51" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM3:IT17">
-    <cfRule type="cellIs" dxfId="69" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="50" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT17">
-    <cfRule type="cellIs" dxfId="68" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU18">
-    <cfRule type="cellIs" dxfId="67" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="48" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2">
-    <cfRule type="cellIs" dxfId="66" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="47" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2">
-    <cfRule type="cellIs" dxfId="65" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="46" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU3:IU17">
-    <cfRule type="cellIs" dxfId="64" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2:IU17">
-    <cfRule type="cellIs" dxfId="63" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV18">
-    <cfRule type="cellIs" dxfId="62" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2">
-    <cfRule type="cellIs" dxfId="61" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2">
-    <cfRule type="cellIs" dxfId="60" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV3:IV17">
-    <cfRule type="cellIs" dxfId="59" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2:IV17">
-    <cfRule type="cellIs" dxfId="58" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW18">
-    <cfRule type="cellIs" dxfId="57" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2">
-    <cfRule type="cellIs" dxfId="56" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2">
-    <cfRule type="cellIs" dxfId="55" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW3:IW17">
-    <cfRule type="cellIs" dxfId="54" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2:IW17">
-    <cfRule type="cellIs" dxfId="53" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX18">
-    <cfRule type="cellIs" dxfId="52" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2">
-    <cfRule type="cellIs" dxfId="51" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2">
-    <cfRule type="cellIs" dxfId="50" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX3:IX17">
-    <cfRule type="cellIs" dxfId="49" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2:IX17">
-    <cfRule type="cellIs" dxfId="48" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY18">
-    <cfRule type="cellIs" dxfId="47" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2">
-    <cfRule type="cellIs" dxfId="46" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2">
-    <cfRule type="cellIs" dxfId="45" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY3:IY17">
-    <cfRule type="cellIs" dxfId="44" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2:IY17">
-    <cfRule type="cellIs" dxfId="43" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ18">
-    <cfRule type="cellIs" dxfId="42" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2">
-    <cfRule type="cellIs" dxfId="41" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2">
-    <cfRule type="cellIs" dxfId="40" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ3:IZ17">
-    <cfRule type="cellIs" dxfId="39" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2:IZ17">
-    <cfRule type="cellIs" dxfId="38" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA18">
-    <cfRule type="cellIs" dxfId="37" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2">
-    <cfRule type="cellIs" dxfId="36" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2">
-    <cfRule type="cellIs" dxfId="35" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA3:JA17">
-    <cfRule type="cellIs" dxfId="34" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2:JA17">
-    <cfRule type="cellIs" dxfId="33" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JO18:JU18">
-    <cfRule type="cellIs" dxfId="32" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JQ2:JQ17">
-    <cfRule type="cellIs" dxfId="31" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JQ2:JQ17">
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR2:JR17">
-    <cfRule type="cellIs" dxfId="29" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR2:JR17">
-    <cfRule type="cellIs" dxfId="28" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JS2:JS17">
-    <cfRule type="cellIs" dxfId="27" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JS2:JS17">
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JT2:JT17">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JT2:JT17">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JU2:JU17">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JU2:JU17">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JV18:KC18">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KD18:KP18">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -70967,10 +72125,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:OR18"/>
+  <dimension ref="A1:OY18"/>
   <sheetViews>
-    <sheetView topLeftCell="OG1" workbookViewId="0">
-      <selection activeCell="OL2" sqref="OL2:OR18"/>
+    <sheetView topLeftCell="OR1" workbookViewId="0">
+      <selection activeCell="OS2" sqref="OS2:OY18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -70978,7 +72136,7 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
@@ -72203,8 +73361,29 @@
       <c r="OR1" s="8">
         <v>44341</v>
       </c>
+      <c r="OS1" s="8">
+        <v>44342</v>
+      </c>
+      <c r="OT1" s="8">
+        <v>44343</v>
+      </c>
+      <c r="OU1" s="8">
+        <v>44344</v>
+      </c>
+      <c r="OV1" s="8">
+        <v>44345</v>
+      </c>
+      <c r="OW1" s="8">
+        <v>44346</v>
+      </c>
+      <c r="OX1" s="8">
+        <v>44347</v>
+      </c>
+      <c r="OY1" s="8">
+        <v>44348</v>
+      </c>
     </row>
-    <row r="2" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -73429,8 +74608,29 @@
       <c r="OR2">
         <v>9</v>
       </c>
+      <c r="OS2">
+        <v>9</v>
+      </c>
+      <c r="OT2">
+        <v>9</v>
+      </c>
+      <c r="OU2">
+        <v>9</v>
+      </c>
+      <c r="OV2">
+        <v>9</v>
+      </c>
+      <c r="OW2">
+        <v>9</v>
+      </c>
+      <c r="OX2">
+        <v>9</v>
+      </c>
+      <c r="OY2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -74655,8 +75855,29 @@
       <c r="OR3">
         <v>12</v>
       </c>
+      <c r="OS3">
+        <v>12</v>
+      </c>
+      <c r="OT3">
+        <v>12</v>
+      </c>
+      <c r="OU3">
+        <v>12</v>
+      </c>
+      <c r="OV3">
+        <v>12</v>
+      </c>
+      <c r="OW3">
+        <v>12</v>
+      </c>
+      <c r="OX3">
+        <v>12</v>
+      </c>
+      <c r="OY3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -75881,8 +77102,29 @@
       <c r="OR4">
         <v>48</v>
       </c>
+      <c r="OS4">
+        <v>48</v>
+      </c>
+      <c r="OT4">
+        <v>48</v>
+      </c>
+      <c r="OU4">
+        <v>48</v>
+      </c>
+      <c r="OV4">
+        <v>48</v>
+      </c>
+      <c r="OW4">
+        <v>48</v>
+      </c>
+      <c r="OX4">
+        <v>48</v>
+      </c>
+      <c r="OY4">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -77107,8 +78349,29 @@
       <c r="OR5">
         <v>11</v>
       </c>
+      <c r="OS5">
+        <v>11</v>
+      </c>
+      <c r="OT5">
+        <v>11</v>
+      </c>
+      <c r="OU5">
+        <v>11</v>
+      </c>
+      <c r="OV5">
+        <v>11</v>
+      </c>
+      <c r="OW5">
+        <v>11</v>
+      </c>
+      <c r="OX5">
+        <v>11</v>
+      </c>
+      <c r="OY5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -78333,8 +79596,29 @@
       <c r="OR6">
         <v>29</v>
       </c>
+      <c r="OS6">
+        <v>29</v>
+      </c>
+      <c r="OT6">
+        <v>29</v>
+      </c>
+      <c r="OU6">
+        <v>29</v>
+      </c>
+      <c r="OV6">
+        <v>29</v>
+      </c>
+      <c r="OW6">
+        <v>29</v>
+      </c>
+      <c r="OX6">
+        <v>29</v>
+      </c>
+      <c r="OY6">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -79559,8 +80843,29 @@
       <c r="OR7">
         <v>125</v>
       </c>
+      <c r="OS7">
+        <v>125</v>
+      </c>
+      <c r="OT7">
+        <v>125</v>
+      </c>
+      <c r="OU7">
+        <v>125</v>
+      </c>
+      <c r="OV7">
+        <v>125</v>
+      </c>
+      <c r="OW7">
+        <v>125</v>
+      </c>
+      <c r="OX7">
+        <v>125</v>
+      </c>
+      <c r="OY7">
+        <v>125</v>
+      </c>
     </row>
-    <row r="8" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -80785,8 +82090,29 @@
       <c r="OR8">
         <v>745</v>
       </c>
+      <c r="OS8">
+        <v>745</v>
+      </c>
+      <c r="OT8">
+        <v>745</v>
+      </c>
+      <c r="OU8">
+        <v>745</v>
+      </c>
+      <c r="OV8">
+        <v>745</v>
+      </c>
+      <c r="OW8">
+        <v>745</v>
+      </c>
+      <c r="OX8">
+        <v>745</v>
+      </c>
+      <c r="OY8">
+        <v>745</v>
+      </c>
     </row>
-    <row r="9" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -82011,8 +83337,29 @@
       <c r="OR9">
         <v>61</v>
       </c>
+      <c r="OS9">
+        <v>61</v>
+      </c>
+      <c r="OT9">
+        <v>61</v>
+      </c>
+      <c r="OU9">
+        <v>61</v>
+      </c>
+      <c r="OV9">
+        <v>61</v>
+      </c>
+      <c r="OW9">
+        <v>61</v>
+      </c>
+      <c r="OX9">
+        <v>61</v>
+      </c>
+      <c r="OY9">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -83237,8 +84584,29 @@
       <c r="OR10">
         <v>45</v>
       </c>
+      <c r="OS10">
+        <v>45</v>
+      </c>
+      <c r="OT10">
+        <v>45</v>
+      </c>
+      <c r="OU10">
+        <v>45</v>
+      </c>
+      <c r="OV10">
+        <v>45</v>
+      </c>
+      <c r="OW10">
+        <v>45</v>
+      </c>
+      <c r="OX10">
+        <v>45</v>
+      </c>
+      <c r="OY10">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -84463,8 +85831,29 @@
       <c r="OR11">
         <v>16</v>
       </c>
+      <c r="OS11">
+        <v>16</v>
+      </c>
+      <c r="OT11">
+        <v>16</v>
+      </c>
+      <c r="OU11">
+        <v>16</v>
+      </c>
+      <c r="OV11">
+        <v>16</v>
+      </c>
+      <c r="OW11">
+        <v>16</v>
+      </c>
+      <c r="OX11">
+        <v>16</v>
+      </c>
+      <c r="OY11">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -85689,8 +87078,29 @@
       <c r="OR12">
         <v>97</v>
       </c>
+      <c r="OS12">
+        <v>97</v>
+      </c>
+      <c r="OT12">
+        <v>97</v>
+      </c>
+      <c r="OU12">
+        <v>97</v>
+      </c>
+      <c r="OV12">
+        <v>97</v>
+      </c>
+      <c r="OW12">
+        <v>97</v>
+      </c>
+      <c r="OX12">
+        <v>97</v>
+      </c>
+      <c r="OY12">
+        <v>97</v>
+      </c>
     </row>
-    <row r="13" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -86915,8 +88325,29 @@
       <c r="OR13">
         <v>49</v>
       </c>
+      <c r="OS13">
+        <v>49</v>
+      </c>
+      <c r="OT13">
+        <v>49</v>
+      </c>
+      <c r="OU13">
+        <v>49</v>
+      </c>
+      <c r="OV13">
+        <v>49</v>
+      </c>
+      <c r="OW13">
+        <v>49</v>
+      </c>
+      <c r="OX13">
+        <v>49</v>
+      </c>
+      <c r="OY13">
+        <v>49</v>
+      </c>
     </row>
-    <row r="14" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -88141,8 +89572,29 @@
       <c r="OR14">
         <v>13</v>
       </c>
+      <c r="OS14">
+        <v>13</v>
+      </c>
+      <c r="OT14">
+        <v>13</v>
+      </c>
+      <c r="OU14">
+        <v>13</v>
+      </c>
+      <c r="OV14">
+        <v>13</v>
+      </c>
+      <c r="OW14">
+        <v>13</v>
+      </c>
+      <c r="OX14">
+        <v>13</v>
+      </c>
+      <c r="OY14">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -89367,8 +90819,29 @@
       <c r="OR15">
         <v>49</v>
       </c>
+      <c r="OS15">
+        <v>49</v>
+      </c>
+      <c r="OT15">
+        <v>49</v>
+      </c>
+      <c r="OU15">
+        <v>49</v>
+      </c>
+      <c r="OV15">
+        <v>49</v>
+      </c>
+      <c r="OW15">
+        <v>49</v>
+      </c>
+      <c r="OX15">
+        <v>49</v>
+      </c>
+      <c r="OY15">
+        <v>49</v>
+      </c>
     </row>
-    <row r="16" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -90593,8 +92066,29 @@
       <c r="OR16">
         <v>8</v>
       </c>
+      <c r="OS16">
+        <v>8</v>
+      </c>
+      <c r="OT16">
+        <v>8</v>
+      </c>
+      <c r="OU16">
+        <v>8</v>
+      </c>
+      <c r="OV16">
+        <v>8</v>
+      </c>
+      <c r="OW16">
+        <v>8</v>
+      </c>
+      <c r="OX16">
+        <v>8</v>
+      </c>
+      <c r="OY16">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -91819,8 +93313,29 @@
       <c r="OR17">
         <v>14</v>
       </c>
+      <c r="OS17">
+        <v>14</v>
+      </c>
+      <c r="OT17">
+        <v>14</v>
+      </c>
+      <c r="OU17">
+        <v>14</v>
+      </c>
+      <c r="OV17">
+        <v>14</v>
+      </c>
+      <c r="OW17">
+        <v>14</v>
+      </c>
+      <c r="OX17">
+        <v>14</v>
+      </c>
+      <c r="OY17">
+        <v>14</v>
+      </c>
     </row>
-    <row r="18" spans="1:408" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:415" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -93452,99 +94967,132 @@
         <f t="shared" si="15"/>
         <v>1331</v>
       </c>
+      <c r="OS18" s="6">
+        <f t="shared" ref="OS18:OY18" si="16">SUM(OS2:OS17)</f>
+        <v>1331</v>
+      </c>
+      <c r="OT18" s="6">
+        <f t="shared" si="16"/>
+        <v>1331</v>
+      </c>
+      <c r="OU18" s="6">
+        <f t="shared" si="16"/>
+        <v>1331</v>
+      </c>
+      <c r="OV18" s="6">
+        <f t="shared" si="16"/>
+        <v>1331</v>
+      </c>
+      <c r="OW18" s="6">
+        <f t="shared" si="16"/>
+        <v>1331</v>
+      </c>
+      <c r="OX18" s="6">
+        <f t="shared" si="16"/>
+        <v>1331</v>
+      </c>
+      <c r="OY18" s="6">
+        <f t="shared" si="16"/>
+        <v>1331</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="19" priority="251" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="252" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B18">
+    <cfRule type="cellIs" dxfId="19" priority="250" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B17">
     <cfRule type="cellIs" dxfId="18" priority="249" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="17" priority="248" operator="lessThan">
+  <conditionalFormatting sqref="C2:MF17">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:MF18">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:MF17">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:MF18">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:MF17">
+  <conditionalFormatting sqref="MG2:MG17">
     <cfRule type="cellIs" dxfId="14" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MG2:MG17">
+  <conditionalFormatting sqref="MG3:MG18">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MG3:MG18">
+  <conditionalFormatting sqref="MG2:MG17">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MG2:MG17">
+  <conditionalFormatting sqref="MH18">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MH18">
+  <conditionalFormatting sqref="MI18:MN18">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MI18:MN18">
+  <conditionalFormatting sqref="MO18:MU18">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MO18:MU18">
+  <conditionalFormatting sqref="MV18:NB18">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MV18:NB18">
+  <conditionalFormatting sqref="NC18:NI18">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="NC18:NI18">
+  <conditionalFormatting sqref="NJ18:NP18">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="NJ18:NP18">
+  <conditionalFormatting sqref="NQ18:NW18">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="NQ18:NW18">
+  <conditionalFormatting sqref="NX18:OD18">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="NX18:OD18">
+  <conditionalFormatting sqref="OE18:OK18">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="OE18:OK18">
+  <conditionalFormatting sqref="OL18:OR18">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="OL18:OR18">
+  <conditionalFormatting sqref="OS18:OY18">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
